--- a/ScrumDoku/Rollenverteilung.xlsx
+++ b/ScrumDoku/Rollenverteilung.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Bimaru: Scrum Rollenverteilung</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Egemen</t>
+  </si>
+  <si>
+    <t>Jede Woche wechseln</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -451,7 +459,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
